--- a/Finance_Data_Chemicals.xlsx
+++ b/Finance_Data_Chemicals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F31E10-774A-45F3-ADD0-F657D962FB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BD8F8-89DB-4EE8-8B65-0518FD565AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D329FA9C-6447-4159-82B4-B61D679E82F5}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>Kingfa Science &amp; Technology (India) Limited (BSE:524019)</t>
   </si>
   <si>
-    <t>Raghav Productivity Enhancers Limited (BSE:539837)</t>
-  </si>
-  <si>
     <t>Punjab Chemicals and Crop Protection Limited (BSE:506618)</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Samrat Pharmachem Limited (BSE:530125)</t>
+  </si>
+  <si>
+    <t>Agarwal Industrial Corporation Limited (BSE:531921)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
     <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +721,7 @@
         <v>39.684921000000003</v>
       </c>
       <c r="Q2">
-        <v>248695.89319999999</v>
+        <v>248695.89300000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>39.684921000000003</v>
       </c>
       <c r="Q3">
-        <v>248695.89319999999</v>
+        <v>248695.89300000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>60.374144000000001</v>
       </c>
       <c r="Q4">
-        <v>196607.05439999999</v>
+        <v>196607.054</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>60.374144000000001</v>
       </c>
       <c r="Q5">
-        <v>196607.05439999999</v>
+        <v>196607.054</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>64.560570999999996</v>
       </c>
       <c r="Q6">
-        <v>177240.8216</v>
+        <v>177240.82199999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>78.797675999999996</v>
       </c>
       <c r="Q7">
-        <v>109300.2506</v>
+        <v>109300.251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>35.849021</v>
       </c>
       <c r="Q8">
-        <v>54467.186110000002</v>
+        <v>54467.186099999999</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>186.426299</v>
       </c>
       <c r="Q9">
-        <v>31058.971010000001</v>
+        <v>31058.971000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>12.025181999999999</v>
       </c>
       <c r="Q11">
-        <v>23792.132089999999</v>
+        <v>23792.132099999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>12.025181999999999</v>
       </c>
       <c r="Q12">
-        <v>23792.132089999999</v>
+        <v>23792.132099999999</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,7 +1304,7 @@
         <v>38.688073000000003</v>
       </c>
       <c r="Q13">
-        <v>22578.480080000001</v>
+        <v>22578.480100000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
         <v>49.742244999999997</v>
       </c>
       <c r="Q14">
-        <v>21858.363870000001</v>
+        <v>21858.3639</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>19.78811</v>
       </c>
       <c r="Q15">
-        <v>20465.42439</v>
+        <v>20465.4244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,21 +1463,21 @@
         <v>46.223278000000001</v>
       </c>
       <c r="Q16">
-        <v>18590.85095</v>
+        <v>18590.850900000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17">
-        <v>4985568</v>
+        <v>4985957</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1516,21 +1516,21 @@
         <v>46.223278000000001</v>
       </c>
       <c r="Q17">
-        <v>18590.85095</v>
+        <v>18590.850900000001</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>4985957</v>
+        <v>4986658</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
         <v>46.223278000000001</v>
       </c>
       <c r="Q18">
-        <v>18590.85095</v>
+        <v>18590.850900000001</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>12.661495</v>
       </c>
       <c r="Q22">
-        <v>10823.895140000001</v>
+        <v>10823.8951</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>27.663012999999999</v>
       </c>
       <c r="Q23">
-        <v>9894.1235219999999</v>
+        <v>9894.1235199999992</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>16.057970999999998</v>
       </c>
       <c r="Q24">
-        <v>8540.0923120000007</v>
+        <v>8540.09231</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,7 +1940,7 @@
         <v>34.905259000000001</v>
       </c>
       <c r="Q25">
-        <v>7541.2983359999998</v>
+        <v>7541.2983400000003</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>38.58399</v>
       </c>
       <c r="Q26">
-        <v>5960.1290179999996</v>
+        <v>5960.1290200000003</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>19.236986999999999</v>
       </c>
       <c r="Q28">
-        <v>5336.0935069999996</v>
+        <v>5336.0935099999997</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,7 +2258,7 @@
         <v>94.309211000000005</v>
       </c>
       <c r="Q31">
-        <v>2286.1864380000002</v>
+        <v>2286.1864399999999</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
         <v>36.777692000000002</v>
       </c>
       <c r="Q33">
-        <v>1093.5493289999999</v>
+        <v>1093.5493300000001</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>4985663</v>
@@ -2417,7 +2417,7 @@
         <v>36.777692000000002</v>
       </c>
       <c r="Q34">
-        <v>1093.5493289999999</v>
+        <v>1093.5493300000001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,7 +2470,7 @@
         <v>34.147533000000003</v>
       </c>
       <c r="Q35">
-        <v>453.7618488</v>
+        <v>453.76184899999998</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2576,7 @@
         <v>15.084109</v>
       </c>
       <c r="Q37">
-        <v>426.22182959999998</v>
+        <v>426.22183000000001</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
         <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>4986688</v>
@@ -2792,11 +2792,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{9EB7BA41-AF64-49BC-9C13-2345DF8421C7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q41">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Finance_Data_Chemicals.xlsx
+++ b/Finance_Data_Chemicals.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BD8F8-89DB-4EE8-8B65-0518FD565AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5605779E-446E-48E9-A9D3-58AB406CFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D329FA9C-6447-4159-82B4-B61D679E82F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>Entity Name</t>
   </si>
@@ -73,10 +73,6 @@
 (%)</t>
   </si>
   <si>
-    <t>Book Value per Share
-(₹)</t>
-  </si>
-  <si>
     <t>Return on Capital
 (%)</t>
   </si>
@@ -157,9 +153,6 @@
     <t>Aarti Industries Limited (BSE:524208)</t>
   </si>
   <si>
-    <t>G M Polyplast Limited (BSE:543239)</t>
-  </si>
-  <si>
     <t>Excel Industries Limited (BSE:500650)</t>
   </si>
   <si>
@@ -226,9 +219,6 @@
     <t>Punjab Chemicals and Crop Protection Limited (BSE:506618)</t>
   </si>
   <si>
-    <t>Diversified Chemicals</t>
-  </si>
-  <si>
     <t>Amco India Limited (BSE:530133)</t>
   </si>
   <si>
@@ -236,6 +226,17 @@
   </si>
   <si>
     <t>Agarwal Industrial Corporation Limited (BSE:531921)</t>
+  </si>
+  <si>
+    <t>Total Debt/Equity
+(%)</t>
+  </si>
+  <si>
+    <t>Book Value per Share
+(?)</t>
+  </si>
+  <si>
+    <t>POCL Enterprises Limited (BSE:539195)</t>
   </si>
 </sst>
 </file>
@@ -609,19 +610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7BA41-AF64-49BC-9C13-2345DF8421C7}">
-  <dimension ref="A1:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE316659-3169-4C85-8187-2563919E749F}">
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -650,48 +648,51 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>4986086</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1.0580000000000001</v>
       </c>
       <c r="G2">
-        <v>3.456</v>
+        <v>63.756999999999998</v>
       </c>
       <c r="H2">
         <v>3.0680000000000001</v>
@@ -706,45 +707,48 @@
         <v>138.15899999999999</v>
       </c>
       <c r="L2">
+        <v>3.456</v>
+      </c>
+      <c r="M2">
         <v>4.3879999999999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>41.265000000000001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-12.928000000000001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-13.71</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>39.684921000000003</v>
       </c>
-      <c r="Q2">
-        <v>248695.89300000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>248695.89319999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>4986601</v>
+        <v>4986086</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1.0580000000000001</v>
       </c>
       <c r="G3">
-        <v>3.456</v>
+        <v>63.756999999999998</v>
       </c>
       <c r="H3">
         <v>3.0680000000000001</v>
@@ -759,45 +763,48 @@
         <v>138.15899999999999</v>
       </c>
       <c r="L3">
+        <v>3.456</v>
+      </c>
+      <c r="M3">
         <v>4.3879999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>41.265000000000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-12.928000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-13.71</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>39.684921000000003</v>
       </c>
-      <c r="Q3">
-        <v>248695.89300000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>248695.89319999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>4985875</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>5.069</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H4">
         <v>5.7389999999999999</v>
@@ -812,45 +819,48 @@
         <v>225.07900000000001</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>10.711</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>39.475000000000001</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-25.489000000000001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-20.864999999999998</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>60.374144000000001</v>
       </c>
-      <c r="Q4">
-        <v>196607.054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>196607.05439999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>4986516</v>
+        <v>4985875</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>5.069</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H5">
         <v>5.7389999999999999</v>
@@ -865,45 +875,48 @@
         <v>225.07900000000001</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>10.711</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>39.475000000000001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-25.489000000000001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-20.864999999999998</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>60.374144000000001</v>
       </c>
-      <c r="Q5">
-        <v>196607.054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>196607.05439999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>4985627</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>2.206</v>
       </c>
       <c r="G6">
-        <v>3.2490000000000001</v>
+        <v>55.55</v>
       </c>
       <c r="H6">
         <v>1.8049999999999999</v>
@@ -918,45 +931,48 @@
         <v>457.137</v>
       </c>
       <c r="L6">
+        <v>3.2490000000000001</v>
+      </c>
+      <c r="M6">
         <v>5.6369999999999996</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>57.18</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6.24</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12.545</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>64.560570999999996</v>
       </c>
-      <c r="Q6">
-        <v>177240.82199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>177240.8216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>4985613</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>1.411</v>
       </c>
       <c r="G7">
-        <v>0.48599999999999999</v>
+        <v>7.8280000000000003</v>
       </c>
       <c r="H7">
         <v>4.9710000000000001</v>
@@ -971,45 +987,48 @@
         <v>233.79400000000001</v>
       </c>
       <c r="L7">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="M7">
         <v>7.0229999999999997</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>45.695999999999998</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-41.127000000000002</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-13.872</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>78.797675999999996</v>
       </c>
-      <c r="Q7">
-        <v>109300.251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>109300.2506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>4986738</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>3.01</v>
       </c>
       <c r="G8">
-        <v>0.20699999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="H8">
         <v>3.9119999999999999</v>
@@ -1024,45 +1043,48 @@
         <v>829.09400000000005</v>
       </c>
       <c r="L8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M8">
         <v>6.9059999999999997</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>44.92</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-2.5219999999999998</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.59299999999999997</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>35.849021</v>
       </c>
-      <c r="Q8">
-        <v>54467.186099999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>54467.186110000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>4980743</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>1.903</v>
       </c>
       <c r="G9">
-        <v>1.5089999999999999</v>
+        <v>25.36</v>
       </c>
       <c r="H9">
         <v>3.585</v>
@@ -1077,45 +1099,48 @@
         <v>30.564</v>
       </c>
       <c r="L9">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="M9">
         <v>6.984</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>35.366999999999997</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-33.652999999999999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-7.4329999999999998</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>186.426299</v>
       </c>
-      <c r="Q9">
-        <v>31058.971000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>31058.971010000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>4987046</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>0.89700000000000002</v>
       </c>
       <c r="G10">
-        <v>3.0179999999999998</v>
+        <v>56.344000000000001</v>
       </c>
       <c r="H10">
         <v>2.665</v>
@@ -1130,45 +1155,48 @@
         <v>634.89599999999996</v>
       </c>
       <c r="L10">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="M10">
         <v>5.5469999999999997</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25.108000000000001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>35.411000000000001</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>15.653</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>24.978335000000001</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>27295.6584</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>4986740</v>
+        <v>4986830</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>4.1020000000000003</v>
       </c>
       <c r="G11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.13</v>
       </c>
       <c r="H11">
         <v>4.8949999999999996</v>
@@ -1183,45 +1211,48 @@
         <v>168.047</v>
       </c>
       <c r="L11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M11">
         <v>16.042999999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>15.898</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-30.113</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-6.4240000000000004</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>12.025181999999999</v>
       </c>
-      <c r="Q11">
-        <v>23792.132099999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>23792.132089999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>4986830</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>4.1020000000000003</v>
       </c>
       <c r="G12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.13</v>
       </c>
       <c r="H12">
         <v>4.8949999999999996</v>
@@ -1236,45 +1267,48 @@
         <v>168.047</v>
       </c>
       <c r="L12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M12">
         <v>16.042999999999999</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>15.898</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-30.113</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-6.4240000000000004</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12.025181999999999</v>
       </c>
-      <c r="Q12">
-        <v>23792.132099999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>23792.132089999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>4986707</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>1.6519999999999999</v>
       </c>
       <c r="G13">
-        <v>1.5089999999999999</v>
+        <v>38.286999999999999</v>
       </c>
       <c r="H13">
         <v>7.0620000000000003</v>
@@ -1289,45 +1323,48 @@
         <v>95.537999999999997</v>
       </c>
       <c r="L13">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="M13">
         <v>9.0820000000000007</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>32.622</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-30.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-1.3959999999999999</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>38.688073000000003</v>
       </c>
-      <c r="Q13">
-        <v>22578.480100000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>22578.480080000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>4985217</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>3.367</v>
       </c>
       <c r="G14">
-        <v>0.52600000000000002</v>
+        <v>9.1010000000000009</v>
       </c>
       <c r="H14">
         <v>6.8620000000000001</v>
@@ -1342,45 +1379,48 @@
         <v>166.40899999999999</v>
       </c>
       <c r="L14">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="M14">
         <v>9.2309999999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>31.765000000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-21.908999999999999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-17.931999999999999</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>49.742244999999997</v>
       </c>
-      <c r="Q14">
-        <v>21858.3639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>21858.363870000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>4980776</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>1.857</v>
       </c>
       <c r="G15">
-        <v>0.55900000000000005</v>
+        <v>18.262</v>
       </c>
       <c r="H15">
         <v>2.8279999999999998</v>
@@ -1395,45 +1435,48 @@
         <v>338.15499999999997</v>
       </c>
       <c r="L15">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M15">
         <v>16.466000000000001</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>24.934000000000001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>19.149999999999999</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>19.542999999999999</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>19.78811</v>
       </c>
-      <c r="Q15">
-        <v>20465.4244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>20465.42439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>4986291</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>1.6120000000000001</v>
       </c>
       <c r="G16">
-        <v>3.6349999999999998</v>
+        <v>29.92</v>
       </c>
       <c r="H16">
         <v>8.2140000000000004</v>
@@ -1448,45 +1491,48 @@
         <v>405.46600000000001</v>
       </c>
       <c r="L16">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="M16">
         <v>2.1280000000000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>17.866</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-69.941999999999993</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-11.837</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>46.223278000000001</v>
       </c>
-      <c r="Q16">
-        <v>18590.850900000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>18590.85095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>4985957</v>
+        <v>4986291</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>1.6120000000000001</v>
       </c>
       <c r="G17">
-        <v>3.6349999999999998</v>
+        <v>29.92</v>
       </c>
       <c r="H17">
         <v>8.2140000000000004</v>
@@ -1501,45 +1547,48 @@
         <v>405.46600000000001</v>
       </c>
       <c r="L17">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="M17">
         <v>2.1280000000000001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>17.866</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-69.941999999999993</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-11.837</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>46.223278000000001</v>
       </c>
-      <c r="Q17">
-        <v>18590.850900000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>18590.85095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>4986658</v>
+        <v>4986291</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>1.6120000000000001</v>
       </c>
       <c r="G18">
-        <v>3.6349999999999998</v>
+        <v>29.92</v>
       </c>
       <c r="H18">
         <v>8.2140000000000004</v>
@@ -1554,45 +1603,48 @@
         <v>405.46600000000001</v>
       </c>
       <c r="L18">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="M18">
         <v>2.1280000000000001</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>17.866</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-69.941999999999993</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-11.837</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>46.223278000000001</v>
       </c>
-      <c r="Q18">
-        <v>18590.850900000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>18590.85095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>4986789</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>2.1040000000000001</v>
       </c>
       <c r="G19">
-        <v>1.298</v>
+        <v>41.917000000000002</v>
       </c>
       <c r="H19">
         <v>4.9050000000000002</v>
@@ -1607,45 +1659,48 @@
         <v>35.747</v>
       </c>
       <c r="L19">
+        <v>1.298</v>
+      </c>
+      <c r="M19">
         <v>13.394</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>33.124000000000002</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>82.728999999999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>19.641999999999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>39.537250999999998</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>15265.299000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>4981579</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>3.2829999999999999</v>
       </c>
       <c r="G20">
-        <v>0.16900000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H20">
         <v>5.2249999999999996</v>
@@ -1660,45 +1715,48 @@
         <v>1105.491</v>
       </c>
       <c r="L20">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M20">
         <v>-0.97199999999999998</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>36.814999999999998</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-91.781999999999996</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-36.515000000000001</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>48.409362000000002</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>14705.1955</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>4985592</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>2.6030000000000002</v>
       </c>
       <c r="G21">
-        <v>0.84699999999999998</v>
+        <v>9.6530000000000005</v>
       </c>
       <c r="H21">
         <v>3.625</v>
@@ -1713,45 +1771,48 @@
         <v>288.26100000000002</v>
       </c>
       <c r="L21">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M21">
         <v>5.3970000000000002</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>39.661000000000001</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-5.5739999999999998</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-3.5409999999999999</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>28.042596</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>13579.46</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>4986788</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>0.23599999999999999</v>
       </c>
       <c r="G22">
-        <v>5.1999999999999998E-2</v>
+        <v>8.4149999999999991</v>
       </c>
       <c r="H22">
         <v>6.7469999999999999</v>
@@ -1766,45 +1827,48 @@
         <v>3.9569999999999999</v>
       </c>
       <c r="L22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="M22">
         <v>141.26900000000001</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>37.530999999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-13.455</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-25.021000000000001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>12.661495</v>
       </c>
-      <c r="Q22">
-        <v>10823.8951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>10823.895140000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>4985744</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>1.25</v>
       </c>
       <c r="G23">
-        <v>3.1309999999999998</v>
+        <v>103.313</v>
       </c>
       <c r="H23">
         <v>5.0720000000000001</v>
@@ -1819,45 +1883,48 @@
         <v>36.155999999999999</v>
       </c>
       <c r="L23">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="M23">
         <v>8.766</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>27.408999999999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>36.761000000000003</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4.9340000000000002</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>27.663012999999999</v>
       </c>
-      <c r="Q23">
-        <v>9894.1235199999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>9894.1235219999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>4986849</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>4.452</v>
       </c>
       <c r="G24">
-        <v>0.34200000000000003</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
         <v>9.5299999999999994</v>
@@ -1872,45 +1939,48 @@
         <v>93.575000000000003</v>
       </c>
       <c r="L24">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M24">
         <v>4.3419999999999996</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>21.106999999999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-51.893999999999998</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-28.158000000000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>16.057970999999998</v>
       </c>
-      <c r="Q24">
-        <v>8540.09231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>8540.0923120000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>4985681</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>1.169</v>
       </c>
       <c r="G25">
-        <v>2.2120000000000002</v>
+        <v>109.154</v>
       </c>
       <c r="H25">
         <v>4.8070000000000004</v>
@@ -1925,45 +1995,48 @@
         <v>98.600999999999999</v>
       </c>
       <c r="L25">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="M25">
         <v>12.025</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>30.690999999999999</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-16.401</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2.5009999999999999</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>34.905259000000001</v>
       </c>
-      <c r="Q25">
-        <v>7541.2983400000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <v>7541.2983359999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>4986665</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>2.3559999999999999</v>
       </c>
       <c r="G26">
-        <v>2.0960000000000001</v>
+        <v>17.146000000000001</v>
       </c>
       <c r="H26">
         <v>9.3360000000000003</v>
@@ -1978,45 +2051,48 @@
         <v>326.89299999999997</v>
       </c>
       <c r="L26">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="M26">
         <v>2.2080000000000002</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>25.619</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5.9050000000000002</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-28.003</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>38.58399</v>
       </c>
-      <c r="Q26">
-        <v>5960.1290200000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <v>5960.1290179999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>4986650</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>1.367</v>
       </c>
       <c r="G27">
-        <v>2.149</v>
+        <v>59.643999999999998</v>
       </c>
       <c r="H27">
         <v>6.2229999999999999</v>
@@ -2031,45 +2107,48 @@
         <v>23.311</v>
       </c>
       <c r="L27">
+        <v>2.149</v>
+      </c>
+      <c r="M27">
         <v>10.192</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>16.454000000000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-7.7640000000000002</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-26.888000000000002</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>40.059393999999998</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5742.875</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>4986861</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>1.3169999999999999</v>
       </c>
       <c r="G28">
-        <v>7.1429999999999998</v>
+        <v>55.593000000000004</v>
       </c>
       <c r="H28">
         <v>3.835</v>
@@ -2084,45 +2163,48 @@
         <v>201.75800000000001</v>
       </c>
       <c r="L28">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="M28">
         <v>0.9</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>21.809000000000001</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-27.765000000000001</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-25.245000000000001</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>19.236986999999999</v>
       </c>
-      <c r="Q28">
-        <v>5336.0935099999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <v>5336.0935069999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>4986149</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>4.7519999999999998</v>
       </c>
       <c r="G29">
-        <v>3.2000000000000001E-2</v>
+        <v>0.317</v>
       </c>
       <c r="H29">
         <v>3.7890000000000001</v>
@@ -2137,98 +2219,104 @@
         <v>311.49099999999999</v>
       </c>
       <c r="L29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M29">
         <v>5.3220000000000001</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>30.773</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-7.1829999999999998</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-0.52300000000000002</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>14.400574000000001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>4726.7550000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C30">
-        <v>6645494</v>
+        <v>4986619</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>2.7669999999999999</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="G30">
-        <v>0.32</v>
+        <v>174.50800000000001</v>
       </c>
       <c r="H30">
-        <v>5.984</v>
+        <v>15.208</v>
       </c>
       <c r="I30">
-        <v>33.453000000000003</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="J30">
-        <v>15.231</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="K30">
-        <v>22.599</v>
+        <v>101.929</v>
       </c>
       <c r="L30">
-        <v>23.565000000000001</v>
+        <v>2.8260000000000001</v>
       </c>
       <c r="M30">
-        <v>27.975000000000001</v>
+        <v>14.151</v>
       </c>
       <c r="N30">
-        <v>82.141000000000005</v>
+        <v>7.0679999999999996</v>
       </c>
       <c r="O30">
-        <v>-0.26500000000000001</v>
+        <v>-24.992000000000001</v>
       </c>
       <c r="P30">
-        <v>33.048433000000003</v>
+        <v>66.245999999999995</v>
       </c>
       <c r="Q30">
-        <v>2382.3492000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22.365117999999999</v>
+      </c>
+      <c r="R30">
+        <v>2317.661075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>4985877</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>1.302</v>
       </c>
       <c r="G31">
-        <v>2.117</v>
+        <v>44.534999999999997</v>
       </c>
       <c r="H31">
         <v>2.6989999999999998</v>
@@ -2243,45 +2331,48 @@
         <v>42.301000000000002</v>
       </c>
       <c r="L31">
+        <v>2.117</v>
+      </c>
+      <c r="M31">
         <v>4.6779999999999999</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>34.820999999999998</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>12.577</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-0.63500000000000001</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>94.309211000000005</v>
       </c>
-      <c r="Q31">
-        <v>2286.1864399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <v>2286.1864380000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>10757602</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>3.79</v>
       </c>
       <c r="G32">
-        <v>4.032</v>
+        <v>67.593000000000004</v>
       </c>
       <c r="H32">
         <v>3.3039999999999998</v>
@@ -2296,45 +2387,48 @@
         <v>30.382000000000001</v>
       </c>
       <c r="L32">
+        <v>4.032</v>
+      </c>
+      <c r="M32">
         <v>5.4640000000000004</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>20.434999999999999</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-14.589</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-10.701000000000001</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>28.489286</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1938.5106000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>4986891</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>1.26</v>
       </c>
       <c r="G33">
-        <v>4.2530000000000001</v>
+        <v>53.106999999999999</v>
       </c>
       <c r="H33">
         <v>15.678000000000001</v>
@@ -2349,45 +2443,48 @@
         <v>30.79</v>
       </c>
       <c r="L33">
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="M33">
         <v>1.6379999999999999</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>29.276</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-62.582000000000001</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-7.274</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>36.777692000000002</v>
       </c>
-      <c r="Q33">
-        <v>1093.5493300000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <v>1093.5493289999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>4985663</v>
+        <v>4986891</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>1.26</v>
       </c>
       <c r="G34">
-        <v>4.2530000000000001</v>
+        <v>53.106999999999999</v>
       </c>
       <c r="H34">
         <v>15.678000000000001</v>
@@ -2402,45 +2499,48 @@
         <v>30.79</v>
       </c>
       <c r="L34">
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="M34">
         <v>1.6379999999999999</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>29.276</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-62.582000000000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-7.274</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>36.777692000000002</v>
       </c>
-      <c r="Q34">
-        <v>1093.5493300000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>1093.5493289999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>4986164</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>1.153</v>
       </c>
       <c r="G35">
-        <v>3.242</v>
+        <v>149.131</v>
       </c>
       <c r="H35">
         <v>1.5429999999999999</v>
@@ -2455,45 +2555,48 @@
         <v>18.777000000000001</v>
       </c>
       <c r="L35">
+        <v>3.242</v>
+      </c>
+      <c r="M35">
         <v>10.750999999999999</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>31.696999999999999</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>7.6379999999999999</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-28.849</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>34.147533000000003</v>
       </c>
-      <c r="Q35">
-        <v>453.76184899999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <v>453.7618488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>6624362</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>3.194</v>
       </c>
       <c r="G36">
-        <v>37.472999999999999</v>
+        <v>64.825999999999993</v>
       </c>
       <c r="H36">
         <v>29.722000000000001</v>
@@ -2508,45 +2611,48 @@
         <v>59.33</v>
       </c>
       <c r="L36">
+        <v>37.472999999999999</v>
+      </c>
+      <c r="M36">
         <v>-0.03</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>5.5650000000000004</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-51.052999999999997</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-16.745000000000001</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>13.57971</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>445.23820799999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>4986664</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>1.671</v>
       </c>
       <c r="G37">
-        <v>2.0950000000000002</v>
+        <v>52.493000000000002</v>
       </c>
       <c r="H37">
         <v>5.6749999999999998</v>
@@ -2561,45 +2667,48 @@
         <v>39.613999999999997</v>
       </c>
       <c r="L37">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="M37">
         <v>8.9190000000000005</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>19.370999999999999</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>21.837</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-39.371000000000002</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>15.084109</v>
       </c>
-      <c r="Q37">
-        <v>426.22183000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <v>426.22182959999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>4986712</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>7.1449999999999996</v>
       </c>
       <c r="G38">
-        <v>0.20699999999999999</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="H38">
         <v>4.0960000000000001</v>
@@ -2614,45 +2723,48 @@
         <v>64.972999999999999</v>
       </c>
       <c r="L38">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M38">
         <v>11.242000000000001</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>30.12</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>49.865000000000002</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>-12.813000000000001</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>11.210762000000001</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>418.94299999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>7126959</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>1.9510000000000001</v>
       </c>
       <c r="G39">
-        <v>6.7919999999999998</v>
+        <v>22.446000000000002</v>
       </c>
       <c r="H39">
         <v>5.9850000000000003</v>
@@ -2667,45 +2779,48 @@
         <v>27.382000000000001</v>
       </c>
       <c r="L39">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="M39">
         <v>-0.67100000000000004</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>26.047999999999998</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-83.875</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>-62.933</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>9.0467049999999993</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>350.8</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>4986688</v>
+        <v>7126959</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>1.9510000000000001</v>
       </c>
       <c r="G40">
-        <v>6.7919999999999998</v>
+        <v>22.446000000000002</v>
       </c>
       <c r="H40">
         <v>5.9850000000000003</v>
@@ -2720,45 +2835,48 @@
         <v>27.382000000000001</v>
       </c>
       <c r="L40">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="M40">
         <v>-0.67100000000000004</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>26.047999999999998</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>-83.875</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>-62.933</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>9.0467049999999993</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>350.8</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>7128365</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>1.1439999999999999</v>
       </c>
       <c r="G41">
-        <v>7.2999999999999995E-2</v>
+        <v>1.452</v>
       </c>
       <c r="H41">
         <v>11.523999999999999</v>
@@ -2773,25 +2891,29 @@
         <v>12804.763000000001</v>
       </c>
       <c r="L41">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M41">
         <v>7.2939999999999996</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>58.097999999999999</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>94.914000000000001</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1.5429999999999999</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>2.6894000000000001E-2</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.51029999999999998</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:R41" xr:uid="{EE316659-3169-4C85-8187-2563919E749F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Finance_Data_Chemicals.xlsx
+++ b/Finance_Data_Chemicals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5605779E-446E-48E9-A9D3-58AB406CFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA0AC10-5E59-4687-AEB5-E36947AB6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D329FA9C-6447-4159-82B4-B61D679E82F5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$R$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE316659-3169-4C85-8187-2563919E749F}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,69 +730,69 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>4986086</v>
+        <v>4986291</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3">
-        <v>1.0580000000000001</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="G3">
-        <v>63.756999999999998</v>
+        <v>29.92</v>
       </c>
       <c r="H3">
-        <v>3.0680000000000001</v>
+        <v>8.2140000000000004</v>
       </c>
       <c r="I3">
-        <v>7.3159999999999998</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="J3">
-        <v>9.6969999999999992</v>
+        <v>2.64</v>
       </c>
       <c r="K3">
-        <v>138.15899999999999</v>
+        <v>405.46600000000001</v>
       </c>
       <c r="L3">
-        <v>3.456</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="M3">
-        <v>4.3879999999999999</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="N3">
-        <v>41.265000000000001</v>
+        <v>17.866</v>
       </c>
       <c r="O3">
-        <v>-12.928000000000001</v>
+        <v>-69.941999999999993</v>
       </c>
       <c r="P3">
-        <v>-13.71</v>
+        <v>-11.837</v>
       </c>
       <c r="Q3">
-        <v>39.684921000000003</v>
+        <v>46.223278000000001</v>
       </c>
       <c r="R3">
-        <v>248695.89319999999</v>
+        <v>18590.85095</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>4985875</v>
+        <v>4985613</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -801,54 +801,54 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>5.069</v>
+        <v>1.411</v>
       </c>
       <c r="G4">
-        <v>8.9999999999999993E-3</v>
+        <v>7.8280000000000003</v>
       </c>
       <c r="H4">
-        <v>5.7389999999999999</v>
+        <v>4.9710000000000001</v>
       </c>
       <c r="I4">
-        <v>14.859</v>
+        <v>9.2189999999999994</v>
       </c>
       <c r="J4">
-        <v>21.663</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="K4">
-        <v>225.07900000000001</v>
+        <v>233.79400000000001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="M4">
-        <v>10.711</v>
+        <v>7.0229999999999997</v>
       </c>
       <c r="N4">
-        <v>39.475000000000001</v>
+        <v>45.695999999999998</v>
       </c>
       <c r="O4">
-        <v>-25.489000000000001</v>
+        <v>-41.127000000000002</v>
       </c>
       <c r="P4">
-        <v>-20.864999999999998</v>
+        <v>-13.872</v>
       </c>
       <c r="Q4">
-        <v>60.374144000000001</v>
+        <v>78.797675999999996</v>
       </c>
       <c r="R4">
-        <v>196607.05439999999</v>
+        <v>109300.2506</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>4985875</v>
+        <v>6624362</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -857,166 +857,166 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>5.069</v>
+        <v>3.194</v>
       </c>
       <c r="G5">
-        <v>8.9999999999999993E-3</v>
+        <v>64.825999999999993</v>
       </c>
       <c r="H5">
-        <v>5.7389999999999999</v>
+        <v>29.722000000000001</v>
       </c>
       <c r="I5">
-        <v>14.859</v>
+        <v>-5.7770000000000001</v>
       </c>
       <c r="J5">
-        <v>21.663</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="K5">
-        <v>225.07900000000001</v>
+        <v>59.33</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>37.472999999999999</v>
       </c>
       <c r="M5">
-        <v>10.711</v>
+        <v>-0.03</v>
       </c>
       <c r="N5">
-        <v>39.475000000000001</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="O5">
-        <v>-25.489000000000001</v>
+        <v>-51.052999999999997</v>
       </c>
       <c r="P5">
-        <v>-20.864999999999998</v>
+        <v>-16.745000000000001</v>
       </c>
       <c r="Q5">
-        <v>60.374144000000001</v>
+        <v>13.57971</v>
       </c>
       <c r="R5">
-        <v>196607.05439999999</v>
+        <v>445.23820799999999</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>4985627</v>
+        <v>7126959</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6">
-        <v>2.206</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="G6">
-        <v>55.55</v>
+        <v>22.446000000000002</v>
       </c>
       <c r="H6">
-        <v>1.8049999999999999</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="I6">
-        <v>10.888</v>
+        <v>-2.4079999999999999</v>
       </c>
       <c r="J6">
-        <v>15.704000000000001</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="K6">
-        <v>457.137</v>
+        <v>27.382000000000001</v>
       </c>
       <c r="L6">
-        <v>3.2490000000000001</v>
+        <v>6.7919999999999998</v>
       </c>
       <c r="M6">
-        <v>5.6369999999999996</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="N6">
-        <v>57.18</v>
+        <v>26.047999999999998</v>
       </c>
       <c r="O6">
-        <v>6.24</v>
+        <v>-83.875</v>
       </c>
       <c r="P6">
-        <v>12.545</v>
+        <v>-62.933</v>
       </c>
       <c r="Q6">
-        <v>64.560570999999996</v>
+        <v>9.0467049999999993</v>
       </c>
       <c r="R6">
-        <v>177240.8216</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>4985613</v>
+        <v>4986789</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7">
-        <v>1.411</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="G7">
-        <v>7.8280000000000003</v>
+        <v>41.917000000000002</v>
       </c>
       <c r="H7">
-        <v>4.9710000000000001</v>
+        <v>4.9050000000000002</v>
       </c>
       <c r="I7">
-        <v>9.2189999999999994</v>
+        <v>19.155000000000001</v>
       </c>
       <c r="J7">
-        <v>10.151999999999999</v>
+        <v>9.3059999999999992</v>
       </c>
       <c r="K7">
-        <v>233.79400000000001</v>
+        <v>35.747</v>
       </c>
       <c r="L7">
-        <v>0.48599999999999999</v>
+        <v>1.298</v>
       </c>
       <c r="M7">
-        <v>7.0229999999999997</v>
+        <v>13.394</v>
       </c>
       <c r="N7">
-        <v>45.695999999999998</v>
+        <v>33.124000000000002</v>
       </c>
       <c r="O7">
-        <v>-41.127000000000002</v>
+        <v>82.728999999999999</v>
       </c>
       <c r="P7">
-        <v>-13.872</v>
+        <v>19.641999999999999</v>
       </c>
       <c r="Q7">
-        <v>78.797675999999996</v>
+        <v>39.537250999999998</v>
       </c>
       <c r="R7">
-        <v>109300.2506</v>
+        <v>15265.299000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>4986738</v>
+        <v>4986707</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1025,110 +1025,110 @@
         <v>17</v>
       </c>
       <c r="F8">
-        <v>3.01</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="G8">
-        <v>2.7869999999999999</v>
+        <v>38.286999999999999</v>
       </c>
       <c r="H8">
-        <v>3.9119999999999999</v>
+        <v>7.0620000000000003</v>
       </c>
       <c r="I8">
-        <v>9.7110000000000003</v>
+        <v>12.603999999999999</v>
       </c>
       <c r="J8">
-        <v>13.888</v>
+        <v>8.5449999999999999</v>
       </c>
       <c r="K8">
-        <v>829.09400000000005</v>
+        <v>95.537999999999997</v>
       </c>
       <c r="L8">
-        <v>0.20699999999999999</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="M8">
-        <v>6.9059999999999997</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="N8">
-        <v>44.92</v>
+        <v>32.622</v>
       </c>
       <c r="O8">
-        <v>-2.5219999999999998</v>
+        <v>-30.3</v>
       </c>
       <c r="P8">
-        <v>0.59299999999999997</v>
+        <v>-1.3959999999999999</v>
       </c>
       <c r="Q8">
-        <v>35.849021</v>
+        <v>38.688073000000003</v>
       </c>
       <c r="R8">
-        <v>54467.186110000002</v>
+        <v>22578.480080000001</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>4980743</v>
+        <v>4986891</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9">
-        <v>1.903</v>
+        <v>1.26</v>
       </c>
       <c r="G9">
-        <v>25.36</v>
+        <v>53.106999999999999</v>
       </c>
       <c r="H9">
-        <v>3.585</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="I9">
-        <v>7.2519999999999998</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="J9">
-        <v>8.7230000000000008</v>
+        <v>2.351</v>
       </c>
       <c r="K9">
-        <v>30.564</v>
+        <v>30.79</v>
       </c>
       <c r="L9">
-        <v>1.5089999999999999</v>
+        <v>4.2530000000000001</v>
       </c>
       <c r="M9">
-        <v>6.984</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="N9">
-        <v>35.366999999999997</v>
+        <v>29.276</v>
       </c>
       <c r="O9">
-        <v>-33.652999999999999</v>
+        <v>-62.582000000000001</v>
       </c>
       <c r="P9">
-        <v>-7.4329999999999998</v>
+        <v>-7.274</v>
       </c>
       <c r="Q9">
-        <v>186.426299</v>
+        <v>36.777692000000002</v>
       </c>
       <c r="R9">
-        <v>31058.971010000001</v>
+        <v>1093.5493289999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
       <c r="C10">
-        <v>4987046</v>
+        <v>4986861</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1137,110 +1137,110 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>0.89700000000000002</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="G10">
-        <v>56.344000000000001</v>
+        <v>55.593000000000004</v>
       </c>
       <c r="H10">
-        <v>2.665</v>
+        <v>3.835</v>
       </c>
       <c r="I10">
-        <v>7.8609999999999998</v>
+        <v>33.817999999999998</v>
       </c>
       <c r="J10">
-        <v>8.7210000000000001</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="K10">
-        <v>634.89599999999996</v>
+        <v>201.75800000000001</v>
       </c>
       <c r="L10">
-        <v>3.0179999999999998</v>
+        <v>7.1429999999999998</v>
       </c>
       <c r="M10">
-        <v>5.5469999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="N10">
-        <v>25.108000000000001</v>
+        <v>21.809000000000001</v>
       </c>
       <c r="O10">
-        <v>35.411000000000001</v>
+        <v>-27.765000000000001</v>
       </c>
       <c r="P10">
-        <v>15.653</v>
+        <v>-25.245000000000001</v>
       </c>
       <c r="Q10">
-        <v>24.978335000000001</v>
+        <v>19.236986999999999</v>
       </c>
       <c r="R10">
-        <v>27295.6584</v>
+        <v>5336.0935069999996</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>4986830</v>
+        <v>4980743</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11">
-        <v>4.1020000000000003</v>
+        <v>1.903</v>
       </c>
       <c r="G11">
-        <v>0.13</v>
+        <v>25.36</v>
       </c>
       <c r="H11">
-        <v>4.8949999999999996</v>
+        <v>3.585</v>
       </c>
       <c r="I11">
-        <v>19.059000000000001</v>
+        <v>7.2519999999999998</v>
       </c>
       <c r="J11">
-        <v>11.010999999999999</v>
+        <v>8.7230000000000008</v>
       </c>
       <c r="K11">
-        <v>168.047</v>
+        <v>30.564</v>
       </c>
       <c r="L11">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="M11">
-        <v>16.042999999999999</v>
+        <v>6.984</v>
       </c>
       <c r="N11">
-        <v>15.898</v>
+        <v>35.366999999999997</v>
       </c>
       <c r="O11">
-        <v>-30.113</v>
+        <v>-33.652999999999999</v>
       </c>
       <c r="P11">
-        <v>-6.4240000000000004</v>
+        <v>-7.4329999999999998</v>
       </c>
       <c r="Q11">
-        <v>12.025181999999999</v>
+        <v>186.426299</v>
       </c>
       <c r="R11">
-        <v>23792.132089999999</v>
+        <v>31058.971010000001</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>4986830</v>
+        <v>4986664</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1249,54 +1249,54 @@
         <v>17</v>
       </c>
       <c r="F12">
-        <v>4.1020000000000003</v>
+        <v>1.671</v>
       </c>
       <c r="G12">
-        <v>0.13</v>
+        <v>52.493000000000002</v>
       </c>
       <c r="H12">
-        <v>4.8949999999999996</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="I12">
-        <v>19.059000000000001</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="J12">
-        <v>11.010999999999999</v>
+        <v>9.0709999999999997</v>
       </c>
       <c r="K12">
-        <v>168.047</v>
+        <v>39.613999999999997</v>
       </c>
       <c r="L12">
-        <v>5.0000000000000001E-3</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="M12">
-        <v>16.042999999999999</v>
+        <v>8.9190000000000005</v>
       </c>
       <c r="N12">
-        <v>15.898</v>
+        <v>19.370999999999999</v>
       </c>
       <c r="O12">
-        <v>-30.113</v>
+        <v>21.837</v>
       </c>
       <c r="P12">
-        <v>-6.4240000000000004</v>
+        <v>-39.371000000000002</v>
       </c>
       <c r="Q12">
-        <v>12.025181999999999</v>
+        <v>15.084109</v>
       </c>
       <c r="R12">
-        <v>23792.132089999999</v>
+        <v>426.22182959999998</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>4986707</v>
+        <v>10757602</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1305,219 +1305,219 @@
         <v>17</v>
       </c>
       <c r="F13">
-        <v>1.6519999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="G13">
-        <v>38.286999999999999</v>
+        <v>67.593000000000004</v>
       </c>
       <c r="H13">
-        <v>7.0620000000000003</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="I13">
-        <v>12.603999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>8.5449999999999999</v>
+        <v>9.6920000000000002</v>
       </c>
       <c r="K13">
-        <v>95.537999999999997</v>
+        <v>30.382000000000001</v>
       </c>
       <c r="L13">
-        <v>1.5089999999999999</v>
+        <v>4.032</v>
       </c>
       <c r="M13">
-        <v>9.0820000000000007</v>
+        <v>5.4640000000000004</v>
       </c>
       <c r="N13">
-        <v>32.622</v>
+        <v>20.434999999999999</v>
       </c>
       <c r="O13">
-        <v>-30.3</v>
+        <v>-14.589</v>
       </c>
       <c r="P13">
-        <v>-1.3959999999999999</v>
+        <v>-10.701000000000001</v>
       </c>
       <c r="Q13">
-        <v>38.688073000000003</v>
+        <v>28.489286</v>
       </c>
       <c r="R13">
-        <v>22578.480080000001</v>
+        <v>1938.5106000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>4985217</v>
+        <v>4981579</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14">
-        <v>3.367</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="G14">
-        <v>9.1010000000000009</v>
+        <v>0.13</v>
       </c>
       <c r="H14">
-        <v>6.8620000000000001</v>
+        <v>5.2249999999999996</v>
       </c>
       <c r="I14">
-        <v>13.125999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J14">
-        <v>10.871</v>
+        <v>-2.5880000000000001</v>
       </c>
       <c r="K14">
-        <v>166.40899999999999</v>
+        <v>1105.491</v>
       </c>
       <c r="L14">
-        <v>0.52600000000000002</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="M14">
-        <v>9.2309999999999999</v>
+        <v>-0.97199999999999998</v>
       </c>
       <c r="N14">
-        <v>31.765000000000001</v>
+        <v>36.814999999999998</v>
       </c>
       <c r="O14">
-        <v>-21.908999999999999</v>
+        <v>-91.781999999999996</v>
       </c>
       <c r="P14">
-        <v>-17.931999999999999</v>
+        <v>-36.515000000000001</v>
       </c>
       <c r="Q14">
-        <v>49.742244999999997</v>
+        <v>48.409362000000002</v>
       </c>
       <c r="R14">
-        <v>21858.363870000001</v>
+        <v>14705.1955</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>4980776</v>
+        <v>4986738</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15">
-        <v>1.857</v>
+        <v>3.01</v>
       </c>
       <c r="G15">
-        <v>18.262</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="H15">
-        <v>2.8279999999999998</v>
+        <v>3.9119999999999999</v>
       </c>
       <c r="I15">
-        <v>22.157</v>
+        <v>9.7110000000000003</v>
       </c>
       <c r="J15">
-        <v>10.715999999999999</v>
+        <v>13.888</v>
       </c>
       <c r="K15">
-        <v>338.15499999999997</v>
+        <v>829.09400000000005</v>
       </c>
       <c r="L15">
-        <v>0.55900000000000005</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="M15">
-        <v>16.466000000000001</v>
+        <v>6.9059999999999997</v>
       </c>
       <c r="N15">
-        <v>24.934000000000001</v>
+        <v>44.92</v>
       </c>
       <c r="O15">
-        <v>19.149999999999999</v>
+        <v>-2.5219999999999998</v>
       </c>
       <c r="P15">
-        <v>19.542999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="Q15">
-        <v>19.78811</v>
+        <v>35.849021</v>
       </c>
       <c r="R15">
-        <v>20465.42439</v>
+        <v>54467.186110000002</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>4986291</v>
+        <v>4985875</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16">
-        <v>1.6120000000000001</v>
+        <v>5.069</v>
       </c>
       <c r="G16">
-        <v>29.92</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H16">
-        <v>8.2140000000000004</v>
+        <v>5.7389999999999999</v>
       </c>
       <c r="I16">
-        <v>3.2440000000000002</v>
+        <v>14.859</v>
       </c>
       <c r="J16">
-        <v>2.64</v>
+        <v>21.663</v>
       </c>
       <c r="K16">
-        <v>405.46600000000001</v>
+        <v>225.07900000000001</v>
       </c>
       <c r="L16">
-        <v>3.6349999999999998</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2.1280000000000001</v>
+        <v>10.711</v>
       </c>
       <c r="N16">
-        <v>17.866</v>
+        <v>39.475000000000001</v>
       </c>
       <c r="O16">
-        <v>-69.941999999999993</v>
+        <v>-25.489000000000001</v>
       </c>
       <c r="P16">
-        <v>-11.837</v>
+        <v>-20.864999999999998</v>
       </c>
       <c r="Q16">
-        <v>46.223278000000001</v>
+        <v>60.374144000000001</v>
       </c>
       <c r="R16">
-        <v>18590.85095</v>
+        <v>196607.05439999999</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>4986291</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>4986291</v>
+        <v>4987046</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1585,110 +1585,110 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>1.6120000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="G18">
-        <v>29.92</v>
+        <v>56.344000000000001</v>
       </c>
       <c r="H18">
-        <v>8.2140000000000004</v>
+        <v>2.665</v>
       </c>
       <c r="I18">
-        <v>3.2440000000000002</v>
+        <v>7.8609999999999998</v>
       </c>
       <c r="J18">
-        <v>2.64</v>
+        <v>8.7210000000000001</v>
       </c>
       <c r="K18">
-        <v>405.46600000000001</v>
+        <v>634.89599999999996</v>
       </c>
       <c r="L18">
-        <v>3.6349999999999998</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="M18">
-        <v>2.1280000000000001</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="N18">
-        <v>17.866</v>
+        <v>25.108000000000001</v>
       </c>
       <c r="O18">
-        <v>-69.941999999999993</v>
+        <v>35.411000000000001</v>
       </c>
       <c r="P18">
-        <v>-11.837</v>
+        <v>15.653</v>
       </c>
       <c r="Q18">
-        <v>46.223278000000001</v>
+        <v>24.978335000000001</v>
       </c>
       <c r="R18">
-        <v>18590.85095</v>
+        <v>27295.6584</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>4986789</v>
+        <v>4985744</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>2.1040000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="G19">
-        <v>41.917000000000002</v>
+        <v>103.313</v>
       </c>
       <c r="H19">
-        <v>4.9050000000000002</v>
+        <v>5.0720000000000001</v>
       </c>
       <c r="I19">
-        <v>19.155000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="J19">
-        <v>9.3059999999999992</v>
+        <v>6.649</v>
       </c>
       <c r="K19">
-        <v>35.747</v>
+        <v>36.155999999999999</v>
       </c>
       <c r="L19">
-        <v>1.298</v>
+        <v>3.1309999999999998</v>
       </c>
       <c r="M19">
-        <v>13.394</v>
+        <v>8.766</v>
       </c>
       <c r="N19">
-        <v>33.124000000000002</v>
+        <v>27.408999999999999</v>
       </c>
       <c r="O19">
-        <v>82.728999999999999</v>
+        <v>36.761000000000003</v>
       </c>
       <c r="P19">
-        <v>19.641999999999999</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="Q19">
-        <v>39.537250999999998</v>
+        <v>27.663012999999999</v>
       </c>
       <c r="R19">
-        <v>15265.299000000001</v>
+        <v>9894.1235219999999</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>4981579</v>
+        <v>4980776</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -1697,54 +1697,54 @@
         <v>17</v>
       </c>
       <c r="F20">
-        <v>3.2829999999999999</v>
+        <v>1.857</v>
       </c>
       <c r="G20">
-        <v>0.13</v>
+        <v>18.262</v>
       </c>
       <c r="H20">
-        <v>5.2249999999999996</v>
+        <v>2.8279999999999998</v>
       </c>
       <c r="I20">
-        <v>0.54200000000000004</v>
+        <v>22.157</v>
       </c>
       <c r="J20">
-        <v>-2.5880000000000001</v>
+        <v>10.715999999999999</v>
       </c>
       <c r="K20">
-        <v>1105.491</v>
+        <v>338.15499999999997</v>
       </c>
       <c r="L20">
-        <v>0.16900000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="M20">
-        <v>-0.97199999999999998</v>
+        <v>16.466000000000001</v>
       </c>
       <c r="N20">
-        <v>36.814999999999998</v>
+        <v>24.934000000000001</v>
       </c>
       <c r="O20">
-        <v>-91.781999999999996</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="P20">
-        <v>-36.515000000000001</v>
+        <v>19.542999999999999</v>
       </c>
       <c r="Q20">
-        <v>48.409362000000002</v>
+        <v>19.78811</v>
       </c>
       <c r="R20">
-        <v>14705.1955</v>
+        <v>20465.42439</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>4985592</v>
+        <v>4986086</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1753,54 +1753,54 @@
         <v>17</v>
       </c>
       <c r="F21">
-        <v>2.6030000000000002</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="G21">
-        <v>9.6530000000000005</v>
+        <v>63.756999999999998</v>
       </c>
       <c r="H21">
-        <v>3.625</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="I21">
-        <v>8.7509999999999994</v>
+        <v>7.3159999999999998</v>
       </c>
       <c r="J21">
-        <v>12.79</v>
+        <v>9.6969999999999992</v>
       </c>
       <c r="K21">
-        <v>288.26100000000002</v>
+        <v>138.15899999999999</v>
       </c>
       <c r="L21">
-        <v>0.84699999999999998</v>
+        <v>3.456</v>
       </c>
       <c r="M21">
-        <v>5.3970000000000002</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="N21">
-        <v>39.661000000000001</v>
+        <v>41.265000000000001</v>
       </c>
       <c r="O21">
-        <v>-5.5739999999999998</v>
+        <v>-12.928000000000001</v>
       </c>
       <c r="P21">
-        <v>-3.5409999999999999</v>
+        <v>-13.71</v>
       </c>
       <c r="Q21">
-        <v>28.042596</v>
+        <v>39.684921000000003</v>
       </c>
       <c r="R21">
-        <v>13579.46</v>
+        <v>248695.89319999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>4986788</v>
+        <v>4986830</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1809,222 +1809,222 @@
         <v>17</v>
       </c>
       <c r="F22">
-        <v>0.23599999999999999</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="G22">
-        <v>8.4149999999999991</v>
+        <v>0.13</v>
       </c>
       <c r="H22">
-        <v>6.7469999999999999</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="I22">
-        <v>263.55599999999998</v>
+        <v>19.059000000000001</v>
       </c>
       <c r="J22">
-        <v>20.744</v>
+        <v>11.010999999999999</v>
       </c>
       <c r="K22">
-        <v>3.9569999999999999</v>
+        <v>168.047</v>
       </c>
       <c r="L22">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M22">
-        <v>141.26900000000001</v>
+        <v>16.042999999999999</v>
       </c>
       <c r="N22">
-        <v>37.530999999999999</v>
+        <v>15.898</v>
       </c>
       <c r="O22">
-        <v>-13.455</v>
+        <v>-30.113</v>
       </c>
       <c r="P22">
-        <v>-25.021000000000001</v>
+        <v>-6.4240000000000004</v>
       </c>
       <c r="Q22">
-        <v>12.661495</v>
+        <v>12.025181999999999</v>
       </c>
       <c r="R22">
-        <v>10823.895140000001</v>
+        <v>23792.132089999999</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>4985744</v>
+        <v>4986665</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23">
-        <v>1.25</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="G23">
-        <v>103.313</v>
+        <v>17.146000000000001</v>
       </c>
       <c r="H23">
-        <v>5.0720000000000001</v>
+        <v>9.3360000000000003</v>
       </c>
       <c r="I23">
-        <v>20.2</v>
+        <v>6.16</v>
       </c>
       <c r="J23">
-        <v>6.649</v>
+        <v>6.0709999999999997</v>
       </c>
       <c r="K23">
-        <v>36.155999999999999</v>
+        <v>326.89299999999997</v>
       </c>
       <c r="L23">
-        <v>3.1309999999999998</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="M23">
-        <v>8.766</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="N23">
-        <v>27.408999999999999</v>
+        <v>25.619</v>
       </c>
       <c r="O23">
-        <v>36.761000000000003</v>
+        <v>5.9050000000000002</v>
       </c>
       <c r="P23">
-        <v>4.9340000000000002</v>
+        <v>-28.003</v>
       </c>
       <c r="Q23">
-        <v>27.663012999999999</v>
+        <v>38.58399</v>
       </c>
       <c r="R23">
-        <v>9894.1235219999999</v>
+        <v>5960.1290179999996</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>4986849</v>
+        <v>4985627</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24">
-        <v>4.452</v>
+        <v>2.206</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>55.55</v>
       </c>
       <c r="H24">
-        <v>9.5299999999999994</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="I24">
-        <v>8.5459999999999994</v>
+        <v>10.888</v>
       </c>
       <c r="J24">
-        <v>3.5449999999999999</v>
+        <v>15.704000000000001</v>
       </c>
       <c r="K24">
-        <v>93.575000000000003</v>
+        <v>457.137</v>
       </c>
       <c r="L24">
-        <v>0.34200000000000003</v>
+        <v>3.2490000000000001</v>
       </c>
       <c r="M24">
-        <v>4.3419999999999996</v>
+        <v>5.6369999999999996</v>
       </c>
       <c r="N24">
-        <v>21.106999999999999</v>
+        <v>57.18</v>
       </c>
       <c r="O24">
-        <v>-51.893999999999998</v>
+        <v>6.24</v>
       </c>
       <c r="P24">
-        <v>-28.158000000000001</v>
+        <v>12.545</v>
       </c>
       <c r="Q24">
-        <v>16.057970999999998</v>
+        <v>64.560570999999996</v>
       </c>
       <c r="R24">
-        <v>8540.0923120000007</v>
+        <v>177240.8216</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>4985681</v>
+        <v>4986650</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>1.169</v>
+        <v>1.367</v>
       </c>
       <c r="G25">
-        <v>109.154</v>
+        <v>59.643999999999998</v>
       </c>
       <c r="H25">
-        <v>4.8070000000000004</v>
+        <v>6.2229999999999999</v>
       </c>
       <c r="I25">
-        <v>22.440999999999999</v>
+        <v>13.22</v>
       </c>
       <c r="J25">
-        <v>10.731</v>
+        <v>4.2080000000000002</v>
       </c>
       <c r="K25">
-        <v>98.600999999999999</v>
+        <v>23.311</v>
       </c>
       <c r="L25">
-        <v>2.2120000000000002</v>
+        <v>2.149</v>
       </c>
       <c r="M25">
-        <v>12.025</v>
+        <v>10.192</v>
       </c>
       <c r="N25">
-        <v>30.690999999999999</v>
+        <v>16.454000000000001</v>
       </c>
       <c r="O25">
-        <v>-16.401</v>
+        <v>-7.7640000000000002</v>
       </c>
       <c r="P25">
-        <v>2.5009999999999999</v>
+        <v>-26.888000000000002</v>
       </c>
       <c r="Q25">
-        <v>34.905259000000001</v>
+        <v>40.059393999999998</v>
       </c>
       <c r="R25">
-        <v>7541.2983359999998</v>
+        <v>5742.875</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>4986665</v>
+        <v>4986830</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -2033,54 +2033,54 @@
         <v>17</v>
       </c>
       <c r="F26">
-        <v>2.3559999999999999</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="G26">
-        <v>17.146000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H26">
-        <v>9.3360000000000003</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="I26">
-        <v>6.16</v>
+        <v>19.059000000000001</v>
       </c>
       <c r="J26">
-        <v>6.0709999999999997</v>
+        <v>11.010999999999999</v>
       </c>
       <c r="K26">
-        <v>326.89299999999997</v>
+        <v>168.047</v>
       </c>
       <c r="L26">
-        <v>2.0960000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M26">
-        <v>2.2080000000000002</v>
+        <v>16.042999999999999</v>
       </c>
       <c r="N26">
-        <v>25.619</v>
+        <v>15.898</v>
       </c>
       <c r="O26">
-        <v>5.9050000000000002</v>
+        <v>-30.113</v>
       </c>
       <c r="P26">
-        <v>-28.003</v>
+        <v>-6.4240000000000004</v>
       </c>
       <c r="Q26">
-        <v>38.58399</v>
+        <v>12.025181999999999</v>
       </c>
       <c r="R26">
-        <v>5960.1290179999996</v>
+        <v>23792.132089999999</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>4986650</v>
+        <v>4986619</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -2089,278 +2089,278 @@
         <v>17</v>
       </c>
       <c r="F27">
-        <v>1.367</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="G27">
-        <v>59.643999999999998</v>
+        <v>174.50800000000001</v>
       </c>
       <c r="H27">
-        <v>6.2229999999999999</v>
+        <v>15.208</v>
       </c>
       <c r="I27">
-        <v>13.22</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="J27">
-        <v>4.2080000000000002</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="K27">
-        <v>23.311</v>
+        <v>101.929</v>
       </c>
       <c r="L27">
-        <v>2.149</v>
+        <v>2.8260000000000001</v>
       </c>
       <c r="M27">
-        <v>10.192</v>
+        <v>14.151</v>
       </c>
       <c r="N27">
-        <v>16.454000000000001</v>
+        <v>7.0679999999999996</v>
       </c>
       <c r="O27">
-        <v>-7.7640000000000002</v>
+        <v>-24.992000000000001</v>
       </c>
       <c r="P27">
-        <v>-26.888000000000002</v>
+        <v>66.245999999999995</v>
       </c>
       <c r="Q27">
-        <v>40.059393999999998</v>
+        <v>22.365117999999999</v>
       </c>
       <c r="R27">
-        <v>5742.875</v>
+        <v>2317.661075</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>4986861</v>
+        <v>4986149</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28">
-        <v>1.3169999999999999</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="G28">
-        <v>55.593000000000004</v>
+        <v>0.317</v>
       </c>
       <c r="H28">
-        <v>3.835</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="I28">
-        <v>33.817999999999998</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="J28">
-        <v>1.6439999999999999</v>
+        <v>7.47</v>
       </c>
       <c r="K28">
-        <v>201.75800000000001</v>
+        <v>311.49099999999999</v>
       </c>
       <c r="L28">
-        <v>7.1429999999999998</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M28">
-        <v>0.9</v>
+        <v>5.3220000000000001</v>
       </c>
       <c r="N28">
-        <v>21.809000000000001</v>
+        <v>30.773</v>
       </c>
       <c r="O28">
-        <v>-27.765000000000001</v>
+        <v>-7.1829999999999998</v>
       </c>
       <c r="P28">
-        <v>-25.245000000000001</v>
+        <v>-0.52300000000000002</v>
       </c>
       <c r="Q28">
-        <v>19.236986999999999</v>
+        <v>14.400574000000001</v>
       </c>
       <c r="R28">
-        <v>5336.0935069999996</v>
+        <v>4726.7550000000001</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>4986149</v>
+        <v>4986291</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29">
-        <v>4.7519999999999998</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="G29">
-        <v>0.317</v>
+        <v>29.92</v>
       </c>
       <c r="H29">
-        <v>3.7890000000000001</v>
+        <v>8.2140000000000004</v>
       </c>
       <c r="I29">
-        <v>7.7759999999999998</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="J29">
-        <v>7.47</v>
+        <v>2.64</v>
       </c>
       <c r="K29">
-        <v>311.49099999999999</v>
+        <v>405.46600000000001</v>
       </c>
       <c r="L29">
-        <v>3.2000000000000001E-2</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="M29">
-        <v>5.3220000000000001</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="N29">
-        <v>30.773</v>
+        <v>17.866</v>
       </c>
       <c r="O29">
-        <v>-7.1829999999999998</v>
+        <v>-69.941999999999993</v>
       </c>
       <c r="P29">
-        <v>-0.52300000000000002</v>
+        <v>-11.837</v>
       </c>
       <c r="Q29">
-        <v>14.400574000000001</v>
+        <v>46.223278000000001</v>
       </c>
       <c r="R29">
-        <v>4726.7550000000001</v>
+        <v>18590.85095</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>4986619</v>
+        <v>4986164</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30">
-        <v>1.2390000000000001</v>
+        <v>1.153</v>
       </c>
       <c r="G30">
-        <v>174.50800000000001</v>
+        <v>149.131</v>
       </c>
       <c r="H30">
-        <v>15.208</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="I30">
-        <v>24.417000000000002</v>
+        <v>16.86</v>
       </c>
       <c r="J30">
-        <v>2.4849999999999999</v>
+        <v>10.39</v>
       </c>
       <c r="K30">
-        <v>101.929</v>
+        <v>18.777000000000001</v>
       </c>
       <c r="L30">
-        <v>2.8260000000000001</v>
+        <v>3.242</v>
       </c>
       <c r="M30">
-        <v>14.151</v>
+        <v>10.750999999999999</v>
       </c>
       <c r="N30">
-        <v>7.0679999999999996</v>
+        <v>31.696999999999999</v>
       </c>
       <c r="O30">
-        <v>-24.992000000000001</v>
+        <v>7.6379999999999999</v>
       </c>
       <c r="P30">
-        <v>66.245999999999995</v>
+        <v>-28.849</v>
       </c>
       <c r="Q30">
-        <v>22.365117999999999</v>
+        <v>34.147533000000003</v>
       </c>
       <c r="R30">
-        <v>2317.661075</v>
+        <v>453.7618488</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>4985877</v>
+        <v>4986891</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31">
-        <v>1.302</v>
+        <v>1.26</v>
       </c>
       <c r="G31">
-        <v>44.534999999999997</v>
+        <v>53.106999999999999</v>
       </c>
       <c r="H31">
-        <v>2.6989999999999998</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="I31">
-        <v>7.4180000000000001</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="J31">
-        <v>4.1760000000000002</v>
+        <v>2.351</v>
       </c>
       <c r="K31">
-        <v>42.301000000000002</v>
+        <v>30.79</v>
       </c>
       <c r="L31">
-        <v>2.117</v>
+        <v>4.2530000000000001</v>
       </c>
       <c r="M31">
-        <v>4.6779999999999999</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="N31">
-        <v>34.820999999999998</v>
+        <v>29.276</v>
       </c>
       <c r="O31">
-        <v>12.577</v>
+        <v>-62.582000000000001</v>
       </c>
       <c r="P31">
-        <v>-0.63500000000000001</v>
+        <v>-7.274</v>
       </c>
       <c r="Q31">
-        <v>94.309211000000005</v>
+        <v>36.777692000000002</v>
       </c>
       <c r="R31">
-        <v>2286.1864380000002</v>
+        <v>1093.5493289999999</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>10757602</v>
+        <v>7126959</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2369,110 +2369,110 @@
         <v>17</v>
       </c>
       <c r="F32">
-        <v>3.79</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="G32">
-        <v>67.593000000000004</v>
+        <v>22.446000000000002</v>
       </c>
       <c r="H32">
-        <v>3.3039999999999998</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="I32">
-        <v>6.7</v>
+        <v>-2.4079999999999999</v>
       </c>
       <c r="J32">
-        <v>9.6920000000000002</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="K32">
-        <v>30.382000000000001</v>
+        <v>27.382000000000001</v>
       </c>
       <c r="L32">
-        <v>4.032</v>
+        <v>6.7919999999999998</v>
       </c>
       <c r="M32">
-        <v>5.4640000000000004</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="N32">
-        <v>20.434999999999999</v>
+        <v>26.047999999999998</v>
       </c>
       <c r="O32">
-        <v>-14.589</v>
+        <v>-83.875</v>
       </c>
       <c r="P32">
-        <v>-10.701000000000001</v>
+        <v>-62.933</v>
       </c>
       <c r="Q32">
-        <v>28.489286</v>
+        <v>9.0467049999999993</v>
       </c>
       <c r="R32">
-        <v>1938.5106000000001</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>4986891</v>
+        <v>4985681</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33">
-        <v>1.26</v>
+        <v>1.169</v>
       </c>
       <c r="G33">
-        <v>53.106999999999999</v>
+        <v>109.154</v>
       </c>
       <c r="H33">
-        <v>15.678000000000001</v>
+        <v>4.8070000000000004</v>
       </c>
       <c r="I33">
-        <v>2.3580000000000001</v>
+        <v>22.440999999999999</v>
       </c>
       <c r="J33">
-        <v>2.351</v>
+        <v>10.731</v>
       </c>
       <c r="K33">
-        <v>30.79</v>
+        <v>98.600999999999999</v>
       </c>
       <c r="L33">
-        <v>4.2530000000000001</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="M33">
-        <v>1.6379999999999999</v>
+        <v>12.025</v>
       </c>
       <c r="N33">
-        <v>29.276</v>
+        <v>30.690999999999999</v>
       </c>
       <c r="O33">
-        <v>-62.582000000000001</v>
+        <v>-16.401</v>
       </c>
       <c r="P33">
-        <v>-7.274</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="Q33">
-        <v>36.777692000000002</v>
+        <v>34.905259000000001</v>
       </c>
       <c r="R33">
-        <v>1093.5493289999999</v>
+        <v>7541.2983359999998</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>4986891</v>
+        <v>4986849</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -2481,278 +2481,278 @@
         <v>17</v>
       </c>
       <c r="F34">
-        <v>1.26</v>
+        <v>4.452</v>
       </c>
       <c r="G34">
-        <v>53.106999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H34">
-        <v>15.678000000000001</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="I34">
-        <v>2.3580000000000001</v>
+        <v>8.5459999999999994</v>
       </c>
       <c r="J34">
-        <v>2.351</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="K34">
-        <v>30.79</v>
+        <v>93.575000000000003</v>
       </c>
       <c r="L34">
-        <v>4.2530000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="M34">
-        <v>1.6379999999999999</v>
+        <v>4.3419999999999996</v>
       </c>
       <c r="N34">
-        <v>29.276</v>
+        <v>21.106999999999999</v>
       </c>
       <c r="O34">
-        <v>-62.582000000000001</v>
+        <v>-51.893999999999998</v>
       </c>
       <c r="P34">
-        <v>-7.274</v>
+        <v>-28.158000000000001</v>
       </c>
       <c r="Q34">
-        <v>36.777692000000002</v>
+        <v>16.057970999999998</v>
       </c>
       <c r="R34">
-        <v>1093.5493289999999</v>
+        <v>8540.0923120000007</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C35">
-        <v>4986164</v>
+        <v>7128365</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35">
-        <v>1.153</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="G35">
-        <v>149.131</v>
+        <v>1.452</v>
       </c>
       <c r="H35">
+        <v>11.523999999999999</v>
+      </c>
+      <c r="I35">
+        <v>11.238</v>
+      </c>
+      <c r="J35">
+        <v>6.7320000000000002</v>
+      </c>
+      <c r="K35">
+        <v>12804.763000000001</v>
+      </c>
+      <c r="L35">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M35">
+        <v>7.2939999999999996</v>
+      </c>
+      <c r="N35">
+        <v>58.097999999999999</v>
+      </c>
+      <c r="O35">
+        <v>94.914000000000001</v>
+      </c>
+      <c r="P35">
         <v>1.5429999999999999</v>
       </c>
-      <c r="I35">
-        <v>16.86</v>
-      </c>
-      <c r="J35">
-        <v>10.39</v>
-      </c>
-      <c r="K35">
-        <v>18.777000000000001</v>
-      </c>
-      <c r="L35">
-        <v>3.242</v>
-      </c>
-      <c r="M35">
-        <v>10.750999999999999</v>
-      </c>
-      <c r="N35">
-        <v>31.696999999999999</v>
-      </c>
-      <c r="O35">
-        <v>7.6379999999999999</v>
-      </c>
-      <c r="P35">
-        <v>-28.849</v>
-      </c>
       <c r="Q35">
-        <v>34.147533000000003</v>
+        <v>2.6894000000000001E-2</v>
       </c>
       <c r="R35">
-        <v>453.7618488</v>
+        <v>0.51029999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>6624362</v>
+        <v>4986788</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36">
-        <v>3.194</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="G36">
-        <v>64.825999999999993</v>
+        <v>8.4149999999999991</v>
       </c>
       <c r="H36">
-        <v>29.722000000000001</v>
+        <v>6.7469999999999999</v>
       </c>
       <c r="I36">
-        <v>-5.7770000000000001</v>
+        <v>263.55599999999998</v>
       </c>
       <c r="J36">
-        <v>-8.2000000000000003E-2</v>
+        <v>20.744</v>
       </c>
       <c r="K36">
-        <v>59.33</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="L36">
-        <v>37.472999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="M36">
-        <v>-0.03</v>
+        <v>141.26900000000001</v>
       </c>
       <c r="N36">
-        <v>5.5650000000000004</v>
+        <v>37.530999999999999</v>
       </c>
       <c r="O36">
-        <v>-51.052999999999997</v>
+        <v>-13.455</v>
       </c>
       <c r="P36">
-        <v>-16.745000000000001</v>
+        <v>-25.021000000000001</v>
       </c>
       <c r="Q36">
-        <v>13.57971</v>
+        <v>12.661495</v>
       </c>
       <c r="R36">
-        <v>445.23820799999999</v>
+        <v>10823.895140000001</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>4986664</v>
+        <v>4985592</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37">
-        <v>1.671</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="G37">
-        <v>52.493000000000002</v>
+        <v>9.6530000000000005</v>
       </c>
       <c r="H37">
-        <v>5.6749999999999998</v>
+        <v>3.625</v>
       </c>
       <c r="I37">
-        <v>4.8099999999999996</v>
+        <v>8.7509999999999994</v>
       </c>
       <c r="J37">
-        <v>9.0709999999999997</v>
+        <v>12.79</v>
       </c>
       <c r="K37">
-        <v>39.613999999999997</v>
+        <v>288.26100000000002</v>
       </c>
       <c r="L37">
-        <v>2.0950000000000002</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="M37">
-        <v>8.9190000000000005</v>
+        <v>5.3970000000000002</v>
       </c>
       <c r="N37">
-        <v>19.370999999999999</v>
+        <v>39.661000000000001</v>
       </c>
       <c r="O37">
-        <v>21.837</v>
+        <v>-5.5739999999999998</v>
       </c>
       <c r="P37">
-        <v>-39.371000000000002</v>
+        <v>-3.5409999999999999</v>
       </c>
       <c r="Q37">
-        <v>15.084109</v>
+        <v>28.042596</v>
       </c>
       <c r="R37">
-        <v>426.22182959999998</v>
+        <v>13579.46</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>4986712</v>
+        <v>4985875</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38">
-        <v>7.1449999999999996</v>
+        <v>5.069</v>
       </c>
       <c r="G38">
-        <v>4.1050000000000004</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H38">
-        <v>4.0960000000000001</v>
+        <v>5.7389999999999999</v>
       </c>
       <c r="I38">
-        <v>14.032</v>
+        <v>14.859</v>
       </c>
       <c r="J38">
-        <v>11.701000000000001</v>
+        <v>21.663</v>
       </c>
       <c r="K38">
-        <v>64.972999999999999</v>
+        <v>225.07900000000001</v>
       </c>
       <c r="L38">
-        <v>0.20699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>11.242000000000001</v>
+        <v>10.711</v>
       </c>
       <c r="N38">
-        <v>30.12</v>
+        <v>39.475000000000001</v>
       </c>
       <c r="O38">
-        <v>49.865000000000002</v>
+        <v>-25.489000000000001</v>
       </c>
       <c r="P38">
-        <v>-12.813000000000001</v>
+        <v>-20.864999999999998</v>
       </c>
       <c r="Q38">
-        <v>11.210762000000001</v>
+        <v>60.374144000000001</v>
       </c>
       <c r="R38">
-        <v>418.94299999999998</v>
+        <v>196607.05439999999</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>7126959</v>
+        <v>4986712</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -2761,159 +2761,163 @@
         <v>17</v>
       </c>
       <c r="F39">
-        <v>1.9510000000000001</v>
+        <v>7.1449999999999996</v>
       </c>
       <c r="G39">
-        <v>22.446000000000002</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="H39">
-        <v>5.9850000000000003</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="I39">
-        <v>-2.4079999999999999</v>
+        <v>14.032</v>
       </c>
       <c r="J39">
-        <v>-0.46800000000000003</v>
+        <v>11.701000000000001</v>
       </c>
       <c r="K39">
-        <v>27.382000000000001</v>
+        <v>64.972999999999999</v>
       </c>
       <c r="L39">
-        <v>6.7919999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="M39">
-        <v>-0.67100000000000004</v>
+        <v>11.242000000000001</v>
       </c>
       <c r="N39">
-        <v>26.047999999999998</v>
+        <v>30.12</v>
       </c>
       <c r="O39">
-        <v>-83.875</v>
+        <v>49.865000000000002</v>
       </c>
       <c r="P39">
-        <v>-62.933</v>
+        <v>-12.813000000000001</v>
       </c>
       <c r="Q39">
-        <v>9.0467049999999993</v>
+        <v>11.210762000000001</v>
       </c>
       <c r="R39">
-        <v>350.8</v>
+        <v>418.94299999999998</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>7126959</v>
+        <v>4985877</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40">
-        <v>1.9510000000000001</v>
+        <v>1.302</v>
       </c>
       <c r="G40">
-        <v>22.446000000000002</v>
+        <v>44.534999999999997</v>
       </c>
       <c r="H40">
-        <v>5.9850000000000003</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="I40">
-        <v>-2.4079999999999999</v>
+        <v>7.4180000000000001</v>
       </c>
       <c r="J40">
-        <v>-0.46800000000000003</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="K40">
-        <v>27.382000000000001</v>
+        <v>42.301000000000002</v>
       </c>
       <c r="L40">
-        <v>6.7919999999999998</v>
+        <v>2.117</v>
       </c>
       <c r="M40">
-        <v>-0.67100000000000004</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="N40">
-        <v>26.047999999999998</v>
+        <v>34.820999999999998</v>
       </c>
       <c r="O40">
-        <v>-83.875</v>
+        <v>12.577</v>
       </c>
       <c r="P40">
-        <v>-62.933</v>
+        <v>-0.63500000000000001</v>
       </c>
       <c r="Q40">
-        <v>9.0467049999999993</v>
+        <v>94.309211000000005</v>
       </c>
       <c r="R40">
-        <v>350.8</v>
+        <v>2286.1864380000002</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C41">
-        <v>7128365</v>
+        <v>4985217</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41">
-        <v>1.1439999999999999</v>
+        <v>3.367</v>
       </c>
       <c r="G41">
-        <v>1.452</v>
+        <v>9.1010000000000009</v>
       </c>
       <c r="H41">
-        <v>11.523999999999999</v>
+        <v>6.8620000000000001</v>
       </c>
       <c r="I41">
-        <v>11.238</v>
+        <v>13.125999999999999</v>
       </c>
       <c r="J41">
-        <v>6.7320000000000002</v>
+        <v>10.871</v>
       </c>
       <c r="K41">
-        <v>12804.763000000001</v>
+        <v>166.40899999999999</v>
       </c>
       <c r="L41">
-        <v>7.2999999999999995E-2</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="M41">
-        <v>7.2939999999999996</v>
+        <v>9.2309999999999999</v>
       </c>
       <c r="N41">
-        <v>58.097999999999999</v>
+        <v>31.765000000000001</v>
       </c>
       <c r="O41">
-        <v>94.914000000000001</v>
+        <v>-21.908999999999999</v>
       </c>
       <c r="P41">
-        <v>1.5429999999999999</v>
+        <v>-17.931999999999999</v>
       </c>
       <c r="Q41">
-        <v>2.6894000000000001E-2</v>
+        <v>49.742244999999997</v>
       </c>
       <c r="R41">
-        <v>0.51029999999999998</v>
+        <v>21858.363870000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:R41" xr:uid="{EE316659-3169-4C85-8187-2563919E749F}"/>
+  <autoFilter ref="A1:R41" xr:uid="{EE316659-3169-4C85-8187-2563919E749F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R41">
+      <sortCondition ref="B1:B41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Finance_Data_Chemicals.xlsx
+++ b/Finance_Data_Chemicals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA0AC10-5E59-4687-AEB5-E36947AB6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8500A160-A660-43C8-B035-F131FA5F375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D329FA9C-6447-4159-82B4-B61D679E82F5}"/>
   </bookViews>

--- a/Finance_Data_Chemicals.xlsx
+++ b/Finance_Data_Chemicals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anagh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8500A160-A660-43C8-B035-F131FA5F375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109DE761-6112-439F-A629-C7C5E28CB5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D329FA9C-6447-4159-82B4-B61D679E82F5}"/>
   </bookViews>
@@ -232,11 +232,11 @@
 (%)</t>
   </si>
   <si>
+    <t>POCL Enterprises Limited (BSE:539195)</t>
+  </si>
+  <si>
     <t>Book Value per Share
-(?)</t>
-  </si>
-  <si>
-    <t>POCL Enterprises Limited (BSE:539195)</t>
+(₹)</t>
   </si>
 </sst>
 </file>
@@ -614,12 +614,12 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -2077,7 +2077,7 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>4986619</v>
